--- a/Datasets/київ/2012-1.xlsx
+++ b/Datasets/київ/2012-1.xlsx
@@ -1,32 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirill\Desktop\киев+\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E4F3BB-1FA0-4CF4-BFE8-CEA65168ECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19875" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="2012-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MAKAR</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +475,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -997,48 +990,48 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1046,17 +1039,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1094,9 +1084,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1129,26 +1119,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1181,26 +1154,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1373,10 +1329,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1489"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -43239,18 +43197,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E738D7E5-0D86-4270-8368-147FF3D5FEB7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>